--- a/customer_mock_data.xlsx
+++ b/customer_mock_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgoneuk-my.sharepoint.com/personal/dilawar_dilawar_kpmg_co_uk/Documents/Desktop/BPP University Work/Year 2/Databases and Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D88A332-BD55-40C6-91A9-CFF3713061F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7D88A332-BD55-40C6-91A9-CFF3713061F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A783D794-37A5-46BC-A8EE-0DBB1072D4D1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{EC32F781-D1FA-4493-8FC2-B1355EA66085}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10450" xr2:uid="{EC32F781-D1FA-4493-8FC2-B1355EA66085}"/>
   </bookViews>
   <sheets>
     <sheet name="MOCK_DATA" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="7">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Customer Status</t>
   </si>
   <si>
@@ -41,6 +32,15 @@
   </si>
   <si>
     <t>Platinum</t>
+  </si>
+  <si>
+    <t>customer id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -903,22 +903,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEFFE8F-B9CB-418D-A366-561D47B61EDB}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -932,7 +934,7 @@
         <v>-3.3050265866999999</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -946,7 +948,7 @@
         <v>1.3377624365</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -960,7 +962,7 @@
         <v>0.63192067190000001</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -974,7 +976,7 @@
         <v>-6.0169326873999998</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -988,7 +990,7 @@
         <v>-6.6364995383999998</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1002,7 +1004,7 @@
         <v>-7.9902572981000004</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1016,7 +1018,7 @@
         <v>-1.9015982967</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1030,7 +1032,7 @@
         <v>-7.6416235288000003</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1044,7 +1046,7 @@
         <v>-6.8550577007999998</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,7 +1060,7 @@
         <v>1.0119624899999999</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1072,7 +1074,7 @@
         <v>0.71753522049999996</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,7 +1088,7 @@
         <v>-4.7784905274999998</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1100,7 +1102,7 @@
         <v>-8.5110993511000004</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1114,7 +1116,7 @@
         <v>-6.4675943952999999</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1128,7 +1130,7 @@
         <v>-5.9711528021999998</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1142,7 +1144,7 @@
         <v>-6.0300434811999999</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1156,7 +1158,7 @@
         <v>-2.0578146897999998</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1170,7 +1172,7 @@
         <v>-6.1412014209999999</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1184,7 +1186,7 @@
         <v>-1.7862728794</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1198,7 +1200,7 @@
         <v>-8.2896363464</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1212,7 +1214,7 @@
         <v>-3.1235240863999998</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1226,7 +1228,7 @@
         <v>-2.2972949925999999</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,7 +1242,7 @@
         <v>-7.6569461759999999</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1254,7 +1256,7 @@
         <v>-2.7678103999000001</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1268,7 +1270,7 @@
         <v>-5.6713659222999997</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1282,7 +1284,7 @@
         <v>-3.6276118690999999</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1296,7 +1298,7 @@
         <v>-5.0800322209999997</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1310,7 +1312,7 @@
         <v>-3.3575078754000001</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1324,7 +1326,7 @@
         <v>-8.3495520548000002</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1338,7 +1340,7 @@
         <v>-5.8780875127999996</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1352,7 +1354,7 @@
         <v>0.90968572430000005</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1366,7 +1368,7 @@
         <v>-7.7355053386000003</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1380,7 +1382,7 @@
         <v>-2.9239152541000002</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1394,7 +1396,7 @@
         <v>-3.8559365242000001</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1408,7 +1410,7 @@
         <v>0.17686434200000001</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1422,7 +1424,7 @@
         <v>-4.3820941635999997</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1436,7 +1438,7 @@
         <v>-7.2410654678000004</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1450,7 +1452,7 @@
         <v>-7.6364177900000003</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1464,7 +1466,7 @@
         <v>-1.5647989200000001</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1478,7 +1480,7 @@
         <v>-6.8552101828999996</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,7 +1494,7 @@
         <v>-8.4945285884999997</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1506,7 +1508,7 @@
         <v>-6.1847617225000002</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1520,7 +1522,7 @@
         <v>-3.7415716081000001</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1534,7 +1536,7 @@
         <v>0.2267548952</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1548,7 +1550,7 @@
         <v>1.2581922000000001E-3</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1562,7 +1564,7 @@
         <v>-3.4121134587999999</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1576,7 +1578,7 @@
         <v>0.31707767079999999</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1590,7 +1592,7 @@
         <v>-6.6728250796999999</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1604,7 +1606,7 @@
         <v>-4.6401739542999998</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1618,7 +1620,7 @@
         <v>-3.7249912799999998</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1632,7 +1634,7 @@
         <v>0.39750665699999999</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1646,7 +1648,7 @@
         <v>-0.3408636135</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1660,7 +1662,7 @@
         <v>-4.5917797032000003</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1674,7 +1676,7 @@
         <v>-0.1320840512</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1688,7 +1690,7 @@
         <v>-0.51945958270000003</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1702,7 +1704,7 @@
         <v>-7.5987588100000003E-2</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1716,7 +1718,7 @@
         <v>-0.43933293089999997</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1730,7 +1732,7 @@
         <v>-2.7119692128000001</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1744,7 +1746,7 @@
         <v>-3.2077823985</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1758,7 +1760,7 @@
         <v>-8.0543835272000006</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1772,7 +1774,7 @@
         <v>-0.45193904229999998</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1786,7 +1788,7 @@
         <v>-5.9776495200000002E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1800,7 +1802,7 @@
         <v>-8.2755253616999997</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1814,7 +1816,7 @@
         <v>-4.7329613052999999</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1828,7 +1830,7 @@
         <v>0.74449955489999997</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1842,7 +1844,7 @@
         <v>-0.10595623379999999</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1856,7 +1858,7 @@
         <v>-0.42837783169999999</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1870,7 +1872,7 @@
         <v>-4.0909925119999997</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1884,7 +1886,7 @@
         <v>-2.2840132621999998</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1898,7 +1900,7 @@
         <v>1.7834377527</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1912,7 +1914,7 @@
         <v>1.2204527434000001</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1926,7 +1928,7 @@
         <v>-8.4550755709000001</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1940,7 +1942,7 @@
         <v>-7.2406903834999996</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1954,7 +1956,7 @@
         <v>-4.6155418900000003</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1968,7 +1970,7 @@
         <v>-7.1785821348000001</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1982,7 +1984,7 @@
         <v>0.58707845439999995</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1996,7 +1998,7 @@
         <v>-4.6245882829999996</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2010,7 +2012,7 @@
         <v>-5.7106453646000004</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2024,7 +2026,7 @@
         <v>-2.8019990587999999</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2038,7 +2040,7 @@
         <v>1.4639817147</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2052,7 +2054,7 @@
         <v>-2.1474178744999999</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2066,7 +2068,7 @@
         <v>-5.0212229806000002</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2080,7 +2082,7 @@
         <v>1.2929969727999999</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2094,7 +2096,7 @@
         <v>1.4061409084000001</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2108,7 +2110,7 @@
         <v>-2.3964543917999999</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2122,7 +2124,7 @@
         <v>-6.0469212569000002</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2136,7 +2138,7 @@
         <v>-1.6194961921</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2150,7 +2152,7 @@
         <v>1.6549752751</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2164,7 +2166,7 @@
         <v>-5.2669752851</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2178,7 +2180,7 @@
         <v>-7.5413855280000002</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2192,7 +2194,7 @@
         <v>1.2878413867</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2206,7 +2208,7 @@
         <v>-6.8818288439000002</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2220,7 +2222,7 @@
         <v>-6.6504888609000004</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2234,7 +2236,7 @@
         <v>1.3743540923999999</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2248,7 +2250,7 @@
         <v>0.62081052140000004</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2262,7 +2264,7 @@
         <v>-8.0555568446999999</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2276,7 +2278,7 @@
         <v>-7.0184058280999997</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2290,7 +2292,7 @@
         <v>-7.0210607488000001</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2304,7 +2306,7 @@
         <v>-5.7625309807000002</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2318,7 +2320,7 @@
         <v>-1.4471773670000001</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2332,7 +2334,7 @@
         <v>-1.0816317763000001</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2346,7 +2348,7 @@
         <v>1.1195447302999999</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2360,7 +2362,7 @@
         <v>-4.1989862564999996</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2374,7 +2376,7 @@
         <v>0.43540251029999999</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2388,7 +2390,7 @@
         <v>0.34350800209999999</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2402,7 +2404,7 @@
         <v>0.40327912640000002</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2416,7 +2418,7 @@
         <v>-3.2012374811000002</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2430,7 +2432,7 @@
         <v>-8.1747610849000001</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2444,7 +2446,7 @@
         <v>-1.5166240372999999</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2458,7 +2460,7 @@
         <v>-4.8482643503</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2472,7 +2474,7 @@
         <v>-8.3833605549999994</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2486,7 +2488,7 @@
         <v>-8.4010602644999999</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2500,7 +2502,7 @@
         <v>0.96322748309999995</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2514,7 +2516,7 @@
         <v>-7.8238020584000001</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2528,7 +2530,7 @@
         <v>0.16414547400000001</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2542,7 +2544,7 @@
         <v>-4.7572986000000003E-3</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2556,7 +2558,7 @@
         <v>-0.27182828889999999</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2570,7 +2572,7 @@
         <v>-5.9544659436999998</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2584,7 +2586,7 @@
         <v>0.29570205179999998</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2598,7 +2600,7 @@
         <v>-4.0119576054000001</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2612,7 +2614,7 @@
         <v>-0.52225386569999999</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2626,7 +2628,7 @@
         <v>1.5265860937</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2640,7 +2642,7 @@
         <v>-0.81782804720000002</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2654,7 +2656,7 @@
         <v>-5.2397055895999998</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2668,7 +2670,7 @@
         <v>-2.7255313457999999</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2682,7 +2684,7 @@
         <v>1.5581218327999999</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2696,7 +2698,7 @@
         <v>-8.3000894759000001</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2710,7 +2712,7 @@
         <v>-4.7609442004</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2724,7 +2726,7 @@
         <v>-1.9927392105999999</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2738,7 +2740,7 @@
         <v>-2.4699238032999999</v>
       </c>
       <c r="D131" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2752,7 +2754,7 @@
         <v>-8.4162122286999992</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2766,7 +2768,7 @@
         <v>-4.0946833470000001</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2780,7 +2782,7 @@
         <v>-0.26577351420000001</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2794,7 +2796,7 @@
         <v>-0.2986027168</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2808,7 +2810,7 @@
         <v>-1.6642683854</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2822,7 +2824,7 @@
         <v>1.6531254449999999</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2836,7 +2838,7 @@
         <v>-8.0156760502999997</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2850,7 +2852,7 @@
         <v>-6.0835471182000003</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2864,7 +2866,7 @@
         <v>-1.4982457810000001</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2878,7 +2880,7 @@
         <v>0.62816421200000006</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2892,7 +2894,7 @@
         <v>-7.6422760812000003</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2906,7 +2908,7 @@
         <v>-5.8516742433999998</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2920,7 +2922,7 @@
         <v>-4.6911449170999999</v>
       </c>
       <c r="D144" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2934,7 +2936,7 @@
         <v>0.9192031624</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -2948,7 +2950,7 @@
         <v>-8.0739667586999992</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2962,7 +2964,7 @@
         <v>-3.4840030185000002</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2976,7 +2978,7 @@
         <v>-2.7840146699999999E-2</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2990,7 +2992,7 @@
         <v>-3.4431782826999999</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3004,7 +3006,7 @@
         <v>-1.3918217409</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3018,7 +3020,7 @@
         <v>-0.508161894</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3032,7 +3034,7 @@
         <v>-0.52663740240000001</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3046,7 +3048,7 @@
         <v>-4.8019657898999997</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3060,7 +3062,7 @@
         <v>1.7623836906999999</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3074,7 +3076,7 @@
         <v>-5.2693959460000004</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3088,7 +3090,7 @@
         <v>-0.74938588979999998</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3102,7 +3104,7 @@
         <v>-5.7572164533999999</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3116,7 +3118,7 @@
         <v>-2.4199239358</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3130,7 +3132,7 @@
         <v>-8.5465524921</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3144,7 +3146,7 @@
         <v>0.57005198459999995</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -3158,7 +3160,7 @@
         <v>-0.32449457050000002</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3172,7 +3174,7 @@
         <v>-2.4939310834000001</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3186,7 +3188,7 @@
         <v>-8.5189979859000005</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3200,7 +3202,7 @@
         <v>-1.3125652425000001</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3214,7 +3216,7 @@
         <v>0.39602200980000002</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -3228,7 +3230,7 @@
         <v>1.0625752437</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3242,7 +3244,7 @@
         <v>1.5071626595000001</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -3256,7 +3258,7 @@
         <v>-5.1268156712000001</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -3270,7 +3272,7 @@
         <v>-1.3733038133</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -3284,7 +3286,7 @@
         <v>1.5949389592000001</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -3298,7 +3300,7 @@
         <v>-7.0833808483</v>
       </c>
       <c r="D171" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -3312,7 +3314,7 @@
         <v>-6.4907681615000001</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -3326,7 +3328,7 @@
         <v>-0.8244127792</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -3340,7 +3342,7 @@
         <v>-7.7412441750000003</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -3354,7 +3356,7 @@
         <v>0.32558859330000001</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -3368,7 +3370,7 @@
         <v>-3.7176258029999998</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -3382,7 +3384,7 @@
         <v>-5.8557745833999997</v>
       </c>
       <c r="D177" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -3396,7 +3398,7 @@
         <v>-2.9205597123000002</v>
       </c>
       <c r="D178" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -3410,7 +3412,7 @@
         <v>1.2859476701999999</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -3424,7 +3426,7 @@
         <v>-1.8357769979</v>
       </c>
       <c r="D180" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -3438,7 +3440,7 @@
         <v>-7.9067349782000003</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -3452,7 +3454,7 @@
         <v>1.3114137511999999</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -3466,7 +3468,7 @@
         <v>-3.5488714971999999</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -3480,7 +3482,7 @@
         <v>0.8541146074</v>
       </c>
       <c r="D184" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -3494,7 +3496,7 @@
         <v>-1.050666291</v>
       </c>
       <c r="D185" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -3508,7 +3510,7 @@
         <v>-8.3164169580999996</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -3522,7 +3524,7 @@
         <v>1.3427031380000001</v>
       </c>
       <c r="D187" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -3536,7 +3538,7 @@
         <v>-3.0286777266999998</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -3550,7 +3552,7 @@
         <v>-5.810498258</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -3564,7 +3566,7 @@
         <v>-7.6540341601000002</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -3578,7 +3580,7 @@
         <v>-0.51883260090000005</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -3592,7 +3594,7 @@
         <v>-0.98978096599999998</v>
       </c>
       <c r="D192" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -3606,7 +3608,7 @@
         <v>-3.9425868420999999</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -3620,7 +3622,7 @@
         <v>0.97879920109999996</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -3634,7 +3636,7 @@
         <v>-5.0714444439999999</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -3648,7 +3650,7 @@
         <v>-1.5646391022999999</v>
       </c>
       <c r="D196" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -3662,7 +3664,7 @@
         <v>-4.0940895642999999</v>
       </c>
       <c r="D197" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -3676,7 +3678,7 @@
         <v>-4.7143873793999997</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -3690,7 +3692,7 @@
         <v>-5.3842280432000003</v>
       </c>
       <c r="D199" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -3704,7 +3706,7 @@
         <v>-1.2758596454</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -3718,7 +3720,7 @@
         <v>-8.1020825473000002</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
